--- a/Documents/QuestionBank/7/7_Decimals.xlsx
+++ b/Documents/QuestionBank/7/7_Decimals.xlsx
@@ -8813,7 +8813,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="26.0"/>
-    <col customWidth="1" min="2" max="2" width="28.88"/>
+    <col customWidth="1" min="2" max="2" width="30.5"/>
   </cols>
   <sheetData>
     <row r="1">
